--- a/workplan.xlsx
+++ b/workplan.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\repo\pronel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BLOB\Documents\GitHub\pronel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7198A95-B7C5-4C98-9EC2-EEFB2507209B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5500BF-6ED8-4D45-AFDB-AF036E9896DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{6C55B03B-D9B0-4B7D-B89E-23E217A3C4DD}"/>
+    <workbookView xWindow="29475" yWindow="225" windowWidth="28950" windowHeight="20925" xr2:uid="{6C55B03B-D9B0-4B7D-B89E-23E217A3C4DD}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>MAIN</t>
   </si>
@@ -79,13 +79,22 @@
   </si>
   <si>
     <t>Smart Home</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KOLDA: </t>
+  </si>
+  <si>
+    <t>BOB</t>
+  </si>
+  <si>
+    <t>Handy</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -115,8 +124,17 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,8 +156,13 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -147,24 +170,42 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
-    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="5">
+    <cellStyle name="Neutrální" xfId="3" builtinId="28"/>
+    <cellStyle name="Normální" xfId="0" builtinId="0"/>
+    <cellStyle name="Správně" xfId="1" builtinId="26"/>
+    <cellStyle name="Špatně" xfId="2" builtinId="27"/>
+    <cellStyle name="Výpočet" xfId="4" builtinId="22"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -180,7 +221,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motiv Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -476,79 +517,89 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BA67D21F-3738-4943-A394-CE61EE607CAB}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="46.28515625" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C5" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/workplan.xlsx
+++ b/workplan.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BLOB\Documents\GitHub\pronel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C5500BF-6ED8-4D45-AFDB-AF036E9896DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B8DA673-8027-4001-AFF9-2FFA4D55AD92}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="29475" yWindow="225" windowWidth="28950" windowHeight="20925" xr2:uid="{6C55B03B-D9B0-4B7D-B89E-23E217A3C4DD}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>MAIN</t>
   </si>
@@ -88,13 +88,16 @@
   </si>
   <si>
     <t>Handy</t>
+  </si>
+  <si>
+    <t>DONE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,8 +136,16 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -159,6 +170,11 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
       </patternFill>
     </fill>
   </fills>
@@ -186,26 +202,29 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="4"/>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="5"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="6">
     <cellStyle name="Neutrální" xfId="3" builtinId="28"/>
     <cellStyle name="Normální" xfId="0" builtinId="0"/>
     <cellStyle name="Správně" xfId="1" builtinId="26"/>
     <cellStyle name="Špatně" xfId="2" builtinId="27"/>
     <cellStyle name="Výpočet" xfId="4" builtinId="22"/>
+    <cellStyle name="Zvýraznění 1" xfId="5" builtinId="29"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -520,7 +539,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,6 +547,7 @@
     <col min="1" max="1" width="46.28515625" customWidth="1"/>
     <col min="2" max="2" width="35.42578125" customWidth="1"/>
     <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
@@ -567,6 +587,9 @@
       <c r="A4" s="2" t="s">
         <v>2</v>
       </c>
+      <c r="B4" s="5" t="s">
+        <v>18</v>
+      </c>
       <c r="C4" s="3" t="s">
         <v>11</v>
       </c>
